--- a/Scenarios/Results_comparison.xlsx
+++ b/Scenarios/Results_comparison.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\OneDrive\Documenti\GitHub\MicroGridsPy-MultiEnergy_Paper\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{439B8F10-BB2A-465F-92DA-69F5FBC34CD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA48129-E67C-43EB-A85D-8D97013AD174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15465" xr2:uid="{27BC35A6-2CCC-4598-B202-32D9458C93A6}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15465" activeTab="1" xr2:uid="{27BC35A6-2CCC-4598-B202-32D9458C93A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost" sheetId="1" r:id="rId1"/>
+    <sheet name="Size" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="22">
   <si>
     <t>A</t>
   </si>
@@ -103,13 +104,16 @@
   <si>
     <t>Natural gas</t>
   </si>
+  <si>
+    <t>kW</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -142,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -202,31 +206,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -381,7 +537,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5232-4191-95DF-D000E5D20AC4}"/>
+              <c16:uniqueId val="{00000000-3BE8-4E05-822A-381BE5927647}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -703,8 +859,434 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cost!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Electric resistance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cost!$D$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cost!$D$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14667662484551461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3271885745400549E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F171-43BC-8066-12995E97AC4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cost!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tank</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cost!$D$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cost!$D$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F171-43BC-8066-12995E97AC4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cost!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NG Boiler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cost!$D$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cost!$D$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1416391046817666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14164057316889389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4677963679458312E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F171-43BC-8066-12995E97AC4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cost!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Solar collector</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cost!$D$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cost!$D$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81714732914522581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F171-43BC-8066-12995E97AC4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cost!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cost!$D$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cost!$D$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.6322599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7429645589484349E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1728243265850907E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2085828121317766E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F171-43BC-8066-12995E97AC4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cost!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Battery Storage System</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cost!$D$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cost!$D$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89152031329359449</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4416332387120381</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89126954701461714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F171-43BC-8066-12995E97AC4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Cost!$B$3</c:f>
@@ -769,433 +1351,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C888-4919-B817-04C9002D291C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cost!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Battery Storage System</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Cost!$D$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cost!$D$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.89152031329359449</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4416332387120381</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.89126954701461714</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C888-4919-B817-04C9002D291C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cost!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Genset</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Cost!$D$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cost!$D$5:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.6322599999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.7429645589484349E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1728243265850907E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.2085828121317766E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C888-4919-B817-04C9002D291C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cost!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Solar collector</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Cost!$D$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cost!$D$6:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.81714732914522581</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C888-4919-B817-04C9002D291C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cost!$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NG Boiler</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Cost!$D$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cost!$D$7:$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.1416391046817666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14164057316889389</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.4677963679458312E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C888-4919-B817-04C9002D291C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cost!$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tank</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B050"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Cost!$D$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cost!$D$8:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-C888-4919-B817-04C9002D291C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cost!$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Electric resistance</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Cost!$D$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cost!$D$9:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14667662484551461</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3271885745400549E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-C888-4919-B817-04C9002D291C}"/>
+              <c16:uniqueId val="{00000000-F171-43BC-8066-12995E97AC4D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1264,6 +1420,7 @@
         <c:axId val="1403486944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="14"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1517,8 +1674,576 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cost!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Electric resistance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cost!$D$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cost!$D$16:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0711016221702959E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7788551778368028E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A06E-4294-BD24-84CFA1584A3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cost!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Natural gas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cost!$D$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cost!$D$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.7043154394492879</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7043166770500262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2321295716735569E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A06E-4294-BD24-84CFA1584A3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cost!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tank</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cost!$D$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cost!$D$15:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A06E-4294-BD24-84CFA1584A3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cost!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NG Boiler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cost!$D$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cost!$D$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.9656264903086479E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.965657237356472E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5636003053513968E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A06E-4294-BD24-84CFA1584A3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cost!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Solar collector</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cost!$D$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cost!$D$13:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17109355295931941</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A06E-4294-BD24-84CFA1584A3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cost!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diesel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cost!$D$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cost!$D$17:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.7650259026486861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13939342809793881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96775140738976617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27047774095213811</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A06E-4294-BD24-84CFA1584A3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cost!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cost!$D$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cost!$D$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.0701282906726222E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2246564126217391E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4288201779479952E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6663155613235579E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A06E-4294-BD24-84CFA1584A3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cost!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Battery Storage System</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cost!$D$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cost!$D$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24888759957377349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96080798454478178</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24881759262463499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A06E-4294-BD24-84CFA1584A3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
               <c:f>Cost!$B$10</c:f>
@@ -1583,535 +2308,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5E50-4BCC-B047-3C43BD247D8B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cost!$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Battery Storage System</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Cost!$D$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cost!$D$11:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.24888759957377349</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96080798454478178</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.24881759262463499</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5E50-4BCC-B047-3C43BD247D8B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cost!$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Genset</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Cost!$D$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cost!$D$12:$G$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.0701282906726222E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.2246564126217391E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.4288201779479952E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.6663155613235579E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5E50-4BCC-B047-3C43BD247D8B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cost!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Solar collector</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFC000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Cost!$D$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cost!$D$13:$G$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.17109355295931941</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5E50-4BCC-B047-3C43BD247D8B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cost!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NG Boiler</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Cost!$D$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cost!$D$14:$G$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.9656264903086479E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.965657237356472E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5636003053513968E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5E50-4BCC-B047-3C43BD247D8B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cost!$B$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tank</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B050"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Cost!$D$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cost!$D$15:$G$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5E50-4BCC-B047-3C43BD247D8B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cost!$B$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Electric resistance</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Cost!$D$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cost!$D$16:$G$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0711016221702959E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.7788551778368028E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5E50-4BCC-B047-3C43BD247D8B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cost!$B$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Diesel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Cost!$D$17:$G$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.7650259026486861</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13939342809793881</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96775140738976617</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.27047774095213811</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-5E50-4BCC-B047-3C43BD247D8B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cost!$B$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Natural gas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Cost!$D$18:$G$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>7.7043154394492879</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.7043166770500262</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2321295716735569E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-5E50-4BCC-B047-3C43BD247D8B}"/>
+              <c16:uniqueId val="{00000000-A06E-4294-BD24-84CFA1584A3E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2362,6 +2559,1039 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Electricity generation components</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Size!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Electric resistance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Size!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Size!$C$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1466.7662484551461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132.7188574540055</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1238-4380-B9AE-F8E1E62D07A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Size!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Size!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Size!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>181.613</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.714822794742179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158.64121632925449</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.04291406065888</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1238-4380-B9AE-F8E1E62D07A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Size!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Battery Storage System</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Size!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Size!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1620.946024170172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6257.514979476432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1620.4900854811219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1238-4380-B9AE-F8E1E62D07A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Size!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Size!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Size!$C$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>320.37394354013549</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1312.2779785612379</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>324.32147417366781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1238-4380-B9AE-F8E1E62D07A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2113597296"/>
+        <c:axId val="121405312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2113597296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121405312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="121405312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2113597296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Thermal generation components</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Size!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tank</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Size!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Size!$C$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74677963679458326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AE60-4C6F-BBDA-C4DD46A9EA52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Size!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NG Boiler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Size!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Size!$C$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1416.3910468176659</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1416.4057316889391</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10125.058024915361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AE60-4C6F-BBDA-C4DD46A9EA52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Size!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Solar collector</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Size!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Size!$C$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1945.588878917205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE60-4C6F-BBDA-C4DD46A9EA52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2113597296"/>
+        <c:axId val="121405312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2113597296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121405312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="121405312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2113597296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2482,6 +3712,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3491,6 +4801,1016 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4005,17 +6325,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>418113</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>265713</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Grafico 6">
+        <xdr:cNvPr id="10" name="Grafico 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C31687E4-1AD5-40D7-98D4-48A3163693E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0E0497-24DF-48F6-99B8-CAC1D4CB055A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4037,23 +6357,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>52799</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Grafico 7">
+        <xdr:cNvPr id="13" name="Grafico 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5652F26C-7E91-430A-87C0-0883E2381CB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F11298-3023-4A53-9999-10F2C9673AEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4075,23 +6395,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>52799</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Grafico 8">
+        <xdr:cNvPr id="14" name="Grafico 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{497AE0AB-C3A2-41DC-86E7-C5CC2C8C1BFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53477AB8-85DD-4EF5-BF60-8D5D19C970BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4114,6 +6434,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>424275</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF0307A-0B36-4CED-A99B-6FD5972457B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>52800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5601F86D-3216-4533-BBCF-885E96F292A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -4123,7 +6524,18 @@
       <sheetName val="Indicators"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>181.613</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="G3">
+            <v>1416.3910468176659</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="I2">
@@ -4171,7 +6583,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4186,7 +6598,28 @@
       <sheetName val="Indicators"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>320.37394354013549</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="G3">
+            <v>1620.946024170172</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>18.714822794742179</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>1416.4057316889391</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="I2">
@@ -4254,7 +6687,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4269,7 +6702,28 @@
       <sheetName val="Indicators"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>1312.2779785612379</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="G3">
+            <v>6257.514979476432</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>158.64121632925449</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>1466.7662484551461</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="I2">
@@ -4327,7 +6781,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4342,7 +6796,43 @@
       <sheetName val="Indicators"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>324.32147417366781</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="G3">
+            <v>1620.4900854811219</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>31.04291406065888</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>1945.588878917205</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>10125.058024915361</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7">
+            <v>0.74677963679458326</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8">
+            <v>132.7188574540055</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="I2">
@@ -4440,7 +6930,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4745,8 +7235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD1062D-3EE2-45C8-9662-840B766B52FF}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4754,481 +7244,482 @@
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="3">
         <f>[1]Cost!I2</f>
         <v>11.727660594589549</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="4">
         <f>[2]Cost!I2</f>
         <v>9.9840096059080814</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="4">
         <f>[3]Cost!I2</f>
         <v>8.9808554764706336</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="15">
         <f>[4]Cost!I2</f>
         <v>3.2597708924093181</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="16">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="17">
         <f>[2]Cost!I3</f>
         <v>0.64074788708027108</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="17">
         <f>[3]Cost!I3</f>
         <v>2.6245559571224759</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="18">
         <f>[4]Cost!I3</f>
         <v>0.64864294834733571</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="19">
         <v>0</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="20">
         <f>[2]Cost!I4</f>
         <v>0.89152031329359449</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="20">
         <f>[3]Cost!I4</f>
         <v>3.4416332387120381</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="23">
         <f>[4]Cost!I4</f>
         <v>0.89126954701461714</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="19">
         <f>[1]Cost!I3</f>
         <v>3.6322599999999997E-2</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="20">
         <f>[2]Cost!I5</f>
         <v>3.7429645589484349E-3</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="20">
         <f>[3]Cost!I5</f>
         <v>3.1728243265850907E-2</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="23">
         <f>[4]Cost!I5</f>
         <v>6.2085828121317766E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="19">
         <v>0</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="20">
         <v>0</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="20">
         <v>0</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="23">
         <f>[4]Cost!I6</f>
         <v>0.81714732914522581</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="19">
         <f>[1]Cost!I4</f>
         <v>0.1416391046817666</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="20">
         <f>[2]Cost!I6</f>
         <v>0.14164057316889389</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="20">
         <v>0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="23">
         <f>[4]Cost!I7</f>
         <v>7.4677963679458312E-5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="19">
         <v>0</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="20">
         <v>0</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="20">
         <v>0</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="23">
         <f>[4]Cost!I8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>0</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>0</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f>[3]Cost!I6</f>
         <v>0.14667662484551461</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="22">
         <f>[4]Cost!I9</f>
         <v>1.3271885745400549E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="16">
         <v>0</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="17">
         <f>[2]Cost!I7</f>
         <v>0.1788789342984472</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="17">
         <f>[3]Cost!I7</f>
         <v>0.73270280258902332</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="18">
         <f>[4]Cost!I10</f>
         <v>0.18108301514545369</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="19">
         <v>0</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="20">
         <f>[2]Cost!I8</f>
         <v>0.24888759957377349</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="20">
         <f>[3]Cost!I8</f>
         <v>0.96080798454478178</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="23">
         <f>[4]Cost!I11</f>
         <v>0.24881759262463499</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="19">
         <f>[1]Cost!I5</f>
         <v>5.0701282906726222E-2</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="20">
         <f>[2]Cost!I9</f>
         <v>5.2246564126217391E-3</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="20">
         <f>[3]Cost!I9</f>
         <v>4.4288201779479952E-2</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="23">
         <f>[4]Cost!I12</f>
         <v>8.6663155613235579E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="19">
         <v>0</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="20">
         <v>0</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="20">
         <v>0</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="23">
         <f>[4]Cost!I13</f>
         <v>0.17109355295931941</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="19">
         <f>[1]Cost!I6</f>
         <v>2.9656264903086479E-2</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="20">
         <f>[2]Cost!I10</f>
         <v>2.965657237356472E-2</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="20">
         <v>0</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="23">
         <f>[4]Cost!I14</f>
         <v>1.5636003053513968E-5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="19">
         <v>0</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="20">
         <v>0</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="20">
         <v>0</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="23">
         <f>[4]Cost!I15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>0</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>0</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <f>[3]Cost!I10</f>
         <v>3.0711016221702959E-2</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="22">
         <f>[4]Cost!I16</f>
         <v>2.7788551778368028E-3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="16">
         <f>[1]Cost!I7</f>
         <v>3.7650259026486861</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="17">
         <f>[2]Cost!I11</f>
         <v>0.13939342809793881</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="17">
         <f>[3]Cost!I11</f>
         <v>0.96775140738976617</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="18">
         <f>[4]Cost!I17</f>
         <v>0.27047774095213811</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <f>[1]Cost!I8</f>
         <v>7.7043154394492879</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <f>[2]Cost!I12</f>
         <v>7.7043166770500262</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>0</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="22">
         <f>[4]Cost!I18</f>
         <v>2.2321295716735569E-4</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="3">
         <f>[1]Cost!I9</f>
         <v>0</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="4">
         <f>[2]Cost!I13</f>
         <v>0</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="4">
         <f>[3]Cost!I13</f>
         <v>0</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="15">
         <f>[4]Cost!I19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="3">
         <f>[1]Cost!I10</f>
         <v>0</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="4">
         <f>[2]Cost!I14</f>
         <v>0</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="4">
         <v>0</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="15">
         <f>[4]Cost!I20</f>
         <v>0</v>
       </c>
@@ -5242,4 +7733,194 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48647F6-B496-44BB-8D24-D05E6CE5C474}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17">
+        <f>[2]Size!G2</f>
+        <v>320.37394354013549</v>
+      </c>
+      <c r="E2" s="17">
+        <f>[3]Size!G2</f>
+        <v>1312.2779785612379</v>
+      </c>
+      <c r="F2" s="18">
+        <f>[4]Size!G2</f>
+        <v>324.32147417366781</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0</v>
+      </c>
+      <c r="D3" s="20">
+        <f>[2]Size!G3</f>
+        <v>1620.946024170172</v>
+      </c>
+      <c r="E3" s="20">
+        <f>[3]Size!G3</f>
+        <v>6257.514979476432</v>
+      </c>
+      <c r="F3" s="23">
+        <f>[4]Size!G3</f>
+        <v>1620.4900854811219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="19">
+        <f>[1]Size!$G$2</f>
+        <v>181.613</v>
+      </c>
+      <c r="D4" s="20">
+        <f>[2]Size!G4</f>
+        <v>18.714822794742179</v>
+      </c>
+      <c r="E4" s="20">
+        <f>[3]Size!G4</f>
+        <v>158.64121632925449</v>
+      </c>
+      <c r="F4" s="23">
+        <f>[4]Size!G4</f>
+        <v>31.04291406065888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="23">
+        <f>[4]Size!G5</f>
+        <v>1945.588878917205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="19">
+        <f>[1]Size!$G$3</f>
+        <v>1416.3910468176659</v>
+      </c>
+      <c r="D6" s="20">
+        <f>[2]Size!G5</f>
+        <v>1416.4057316889391</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0</v>
+      </c>
+      <c r="F6" s="23">
+        <f>[4]Size!G6</f>
+        <v>10125.058024915361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="F7" s="23">
+        <f>[4]Size!G7</f>
+        <v>0.74677963679458326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <f>[3]Size!G5</f>
+        <v>1466.7662484551461</v>
+      </c>
+      <c r="F8" s="22">
+        <f>[4]Size!G8</f>
+        <v>132.7188574540055</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>